--- a/50_WorkTool/Breezee.WorkHelper.DBTool.UI/DataTemplate/DBTool/AutoFile/模板_生成代码文件-CSharp.xlsx
+++ b/50_WorkTool/Breezee.WorkHelper.DBTool.UI/DataTemplate/DBTool/AutoFile/模板_生成代码文件-CSharp.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="765" windowWidth="17490" windowHeight="7440"/>
+    <workbookView xWindow="10800" yWindow="765" windowWidth="17490" windowHeight="7440" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="类文件" sheetId="5" r:id="rId1"/>
+    <sheet name="代码模板" sheetId="5" r:id="rId1"/>
     <sheet name="自定义变量" sheetId="6" r:id="rId2"/>
     <sheet name="类型转换" sheetId="8" r:id="rId3"/>
     <sheet name="系统变量" sheetId="7" r:id="rId4"/>
@@ -309,6 +309,31 @@
         </r>
       </text>
     </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+针对动态列的连接字符。
+注：最后一列不会加上连接字符</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -430,12 +455,85 @@
         </r>
       </text>
     </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+符合条件才拼接变量内容。单个条件格式：键,操作符,值。操作符包括：=,!=,&lt;&gt;。空值用null表示。
+注：目前只支持单个条件！</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+大驼峰式命名法（upper camel case）： 每一个单字的首字母都采用大写字母，例如：MyName</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+小驼峰式命名法（lower camel case）： 第一个单词以小写字母开始；第二个单词的首字母大写，例如：myName</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="142">
   <si>
     <t>后缀</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -457,26 +555,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>实体名，首字母大写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实体名，首字母大写，但第一个字母小写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实名中文名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段名，首字母大写，但第一个字母小写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段中文名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据库类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -489,58 +567,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>包路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段名，首字母大写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>示例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>com.xxx.xxxxx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DbCity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dbCity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CityName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cityName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库列名，我们一般使用下横线分隔单词</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CITY_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ly-张三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -549,22 +579,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据库所有列名，以逗号分隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CITY_ID,CITY_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB_City</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库中的表名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开发语言类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -604,35 +618,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#ENT_NAME#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#ENT_NAME_CN#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>包名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#ENT_NAME_FL#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#DATE_NOW#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#TABLE_DB_NAME#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段的实体类型，根据【类型转换】页签来转换，默认为String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -654,10 +640,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#COL_DB_NAME_ALL#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查询结果用到的字段API说明，用于创建查询结果实体</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -683,26 +665,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#COL_NAME_FL#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_NAME_CN#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_DB_NAME#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_ENT_TYPE#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#PACK_PATH#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> @ApiModelProperty(value = "#COL_NAME_CN#")
  private #COL_ENT_TYPE# #COL_NAME_FL#;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -720,38 +682,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#COL_DB_LEN#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_DB_TYPE#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_DB_TYPE_LEN#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库列的长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库列类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库列类型和长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Breezee.WorkHelper.DBTool.IBLL/Common</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -813,10 +743,6 @@
   </si>
   <si>
     <t>Breezee.WorkHelper.DBTool.IDAC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#COL_NAME#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1042,6 +968,246 @@
  {
  }
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量内容条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#DATE_NOW#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#PACK_PATH#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.xxx.xxxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#TABLE_DB_NAME#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库中的表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB_City</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ENT_NAME#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大驼峰式实体名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DbCity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ENT_NAME_LCC#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小驼峰式实体名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dbCity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ENT_NAME_CN#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实名中文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#ENT_EXT#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实名说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_NAME#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大驼峰式字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CityName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_NAME_LCC#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小驼峰式字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cityName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_NAME_CN#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段中文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_NAME#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列名，我们一般使用下横线分隔单词</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CITY_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_LEN#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列的长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_TYPE#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列类型（不含长度或精度）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_TYPE_LEN#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列的长度（含长度或精度）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10),decimal(10,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_DEC_BEG#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列的精度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_DEC_END#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列的小数位数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_KEY#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列的主外键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK，FK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_NOT_NULL#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列是否非空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1是，0或空为否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_DEF_VAL#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列的默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字，字符或函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_DB_EXT#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库列的备注信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一些值范围说明等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#COL_ENT_TYPE#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段的实体类型，根据【类型转换】页签来转换，默认为String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1152,7 +1318,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1179,6 +1345,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1486,7 +1658,7 @@
   </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -1504,19 +1676,19 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -1533,25 +1705,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.15">
@@ -1559,21 +1731,21 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="175.5" x14ac:dyDescent="0.15">
@@ -1581,23 +1753,23 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="243" x14ac:dyDescent="0.15">
@@ -1605,23 +1777,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>82</v>
+        <v>40</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="189" x14ac:dyDescent="0.15">
@@ -1629,25 +1801,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="256.5" x14ac:dyDescent="0.15">
@@ -1655,25 +1827,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>121</v>
+        <v>78</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1694,10 +1866,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1705,123 +1877,130 @@
     <col min="1" max="1" width="9.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.375" style="2" customWidth="1"/>
     <col min="3" max="3" width="65.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="36.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>110</v>
+        <v>64</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1850,18 +2029,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1873,10 +2052,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1884,304 +2063,407 @@
     <col min="1" max="1" width="9.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="2" customWidth="1"/>
     <col min="3" max="3" width="73" style="2" customWidth="1"/>
-    <col min="4" max="4" width="80.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="43.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="2" customWidth="1"/>
+    <col min="5" max="5" width="80.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="43.875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="6">
+      <c r="F1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="10">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="10">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="10">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="10">
+        <v>1</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="10">
+        <v>1</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="10">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="10">
+        <v>2</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="10">
+        <v>2</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="10">
+        <v>2</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="10">
+        <v>2</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F13" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="10">
+        <v>2</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="10">
+        <v>2</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="10">
+        <v>2</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="10">
+        <v>2</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="10">
+        <v>2</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="10">
+        <v>2</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="10">
+        <v>2</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="10">
+        <v>2</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="10">
+        <v>2</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="6">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="6">
-        <v>1</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="6">
-        <v>1</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="6">
-        <v>2</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="6">
-        <v>2</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="6">
-        <v>2</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="6">
-        <v>2</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="6">
-        <v>2</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="6">
-        <v>2</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="6">
-        <v>2</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="6">
-        <v>2</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="6">
-        <v>2</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A17" s="2">
-        <v>2</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A18" s="2">
-        <v>2</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A19" s="2">
-        <v>2</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="2">
-        <v>2</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="2">
-        <v>2</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>53</v>
-      </c>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D33" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
